--- a/lectures/9/Cross-tab worksheet.xlsx
+++ b/lectures/9/Cross-tab worksheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1398629E-0DF8-4D51-8817-547CBC46A7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24575D38-F540-4A49-8DB2-99B20BF0981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="747" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -11195,16 +11195,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11279,16 +11279,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12902,8 +12902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017DEE67-8F5D-4A6F-B52F-65AC81081927}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12990,7 +12990,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13047,7 +13047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3E772-AD71-4724-9C26-969D31307622}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13132,7 +13134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC97C014-A5B1-4C3A-99C9-0BA9DBFDEB34}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -13180,7 +13184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC1DD1-2A5C-42C2-B90F-79217246D8D4}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
